--- a/thesis/defense presentation/tables from short communication.xlsx
+++ b/thesis/defense presentation/tables from short communication.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/thesis/defense presentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{E0C6C6D7-56A5-4A2D-9B66-919933D0D8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD700331-F963-4440-892D-E05ED2222BDA}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{E0C6C6D7-56A5-4A2D-9B66-919933D0D8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9D3980B-D033-4C3D-8733-773FFC7ED833}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="6" xr2:uid="{5E3297EB-205F-415E-ABB2-07C029930916}"/>
+    <workbookView xWindow="38280" yWindow="3780" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{5E3297EB-205F-415E-ABB2-07C029930916}"/>
   </bookViews>
   <sheets>
-    <sheet name="non zero with boxes" sheetId="4" r:id="rId1"/>
-    <sheet name="groups" sheetId="1" r:id="rId2"/>
-    <sheet name="only non zero prev" sheetId="3" r:id="rId3"/>
-    <sheet name="full sheet" sheetId="2" r:id="rId4"/>
-    <sheet name="nasm" sheetId="5" r:id="rId5"/>
-    <sheet name="ed nasm" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
+    <sheet name="only 3 columns" sheetId="8" r:id="rId1"/>
+    <sheet name="non zero with boxes" sheetId="4" r:id="rId2"/>
+    <sheet name="groups" sheetId="1" r:id="rId3"/>
+    <sheet name="only non zero prev" sheetId="3" r:id="rId4"/>
+    <sheet name="full sheet" sheetId="2" r:id="rId5"/>
+    <sheet name="nasm" sheetId="5" r:id="rId6"/>
+    <sheet name="only 3 nasm" sheetId="9" r:id="rId7"/>
+    <sheet name="ed nasm" sheetId="6" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="233">
   <si>
     <r>
       <t xml:space="preserve">Table 1. Quarter-level prevalence of pathogens </t>
@@ -1288,6 +1290,52 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">carriage; S = susceptible to penicillin; R = resistant to penicillin. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Table 1. Quarter-level prevalence of pathogens </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(or grouping of similar pathogens) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>causing intramammary infections [median (range)] by farm, stratified by facility type.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> The quarter-level prevalence represents the percent of sampled quarters infected with a particular pathogen over all sampled quarters at risk where IMI status could be determined for that farm visit. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Table 1. Quarter-level prevalence of seven most common non-aureus staphylococci and mammaliicocci (NASM) causing intramammary infections [median (range)] by farm, stratified by facility type.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> The quarter-level prevalence represents the percent of sampled quarters infected with a particular pathogen over all sampled quarters at risk where IMI status could be determined for that farm visit.</t>
     </r>
   </si>
 </sst>
@@ -1811,7 +1859,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1856,28 +1904,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1893,16 +1921,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2015,6 +2033,75 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2032,10 +2119,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2073,7 +2164,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2179,7 +2270,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2321,18 +2412,226 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0003479-F6AA-49BB-949B-6740EA4E47FB}">
+  <dimension ref="A1:P11"/>
+  <sheetViews>
+    <sheetView zoomScale="113" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" customWidth="1"/>
+    <col min="4" max="16" width="12.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="71" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="71">
+        <v>15</v>
+      </c>
+      <c r="E3" s="71">
+        <v>15</v>
+      </c>
+      <c r="F3" s="72">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+    </row>
+    <row r="5" spans="1:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8"/>
+      <c r="B5" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="62"/>
+      <c r="D5" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="73" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="8"/>
+      <c r="B6" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="73" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="73" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="59"/>
+      <c r="D7" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="74" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9"/>
+      <c r="B8" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" s="59"/>
+      <c r="D8" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" s="73" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="62"/>
+      <c r="D9" s="73" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="F9" s="73" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8"/>
+      <c r="B10" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="59"/>
+      <c r="D10" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="73" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="64"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A11:P11"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E5BEBD-7496-4281-8F60-736B6F8890DB}">
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView zoomScale="113" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2344,29 +2643,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="72.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
     </row>
     <row r="2" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2408,11 +2707,11 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="2">
         <v>3</v>
       </c>
@@ -2454,11 +2753,11 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -2475,10 +2774,10 @@
     </row>
     <row r="5" spans="1:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="5" t="s">
         <v>31</v>
       </c>
@@ -2521,10 +2820,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="18"/>
+      <c r="C6" s="59"/>
       <c r="D6" s="5" t="s">
         <v>90</v>
       </c>
@@ -2567,10 +2866,10 @@
     </row>
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="18"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="7" t="s">
         <v>17</v>
       </c>
@@ -2613,10 +2912,10 @@
     </row>
     <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="C8" s="18"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="5" t="s">
         <v>153</v>
       </c>
@@ -2659,10 +2958,10 @@
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="C9" s="19"/>
+      <c r="C9" s="62"/>
       <c r="D9" s="5" t="s">
         <v>90</v>
       </c>
@@ -2705,10 +3004,10 @@
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8"/>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="18"/>
+      <c r="C10" s="59"/>
       <c r="D10" s="5" t="s">
         <v>46</v>
       </c>
@@ -2750,44 +3049,44 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="64" t="s">
         <v>189</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A11:P11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A11:P11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00DF2E3-5889-4C0E-A1F6-DEC51F7BC67B}">
   <dimension ref="A1:P22"/>
   <sheetViews>
@@ -2803,29 +3102,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="72.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
     </row>
     <row r="2" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2867,11 +3166,11 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="2">
         <v>3</v>
       </c>
@@ -2913,11 +3212,11 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -2934,10 +3233,10 @@
     </row>
     <row r="5" spans="1:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="5" t="s">
         <v>31</v>
       </c>
@@ -2980,10 +3279,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="18"/>
+      <c r="C6" s="59"/>
       <c r="D6" s="5" t="s">
         <v>90</v>
       </c>
@@ -3026,10 +3325,10 @@
     </row>
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="18"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="7" t="s">
         <v>17</v>
       </c>
@@ -3072,10 +3371,10 @@
     </row>
     <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="C8" s="18"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="5" t="s">
         <v>153</v>
       </c>
@@ -3118,10 +3417,10 @@
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="C9" s="19"/>
+      <c r="C9" s="62"/>
       <c r="D9" s="5" t="s">
         <v>90</v>
       </c>
@@ -3164,10 +3463,10 @@
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="18"/>
+      <c r="C10" s="59"/>
       <c r="D10" s="5" t="s">
         <v>46</v>
       </c>
@@ -3210,10 +3509,10 @@
     </row>
     <row r="11" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="18"/>
+      <c r="C11" s="59"/>
       <c r="D11" s="5" t="s">
         <v>122</v>
       </c>
@@ -3256,10 +3555,10 @@
     </row>
     <row r="12" spans="1:16" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="19"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="5" t="s">
         <v>46</v>
       </c>
@@ -3302,10 +3601,10 @@
     </row>
     <row r="13" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="C13" s="18"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="5" t="s">
         <v>163</v>
       </c>
@@ -3348,10 +3647,10 @@
     </row>
     <row r="14" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="5" t="s">
         <v>46</v>
       </c>
@@ -3394,10 +3693,10 @@
     </row>
     <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="C15" s="19"/>
+      <c r="C15" s="62"/>
       <c r="D15" s="5" t="s">
         <v>176</v>
       </c>
@@ -3440,10 +3739,10 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="C16" s="18"/>
+      <c r="C16" s="59"/>
       <c r="D16" s="5" t="s">
         <v>46</v>
       </c>
@@ -3486,10 +3785,10 @@
     </row>
     <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="19"/>
+      <c r="C17" s="62"/>
       <c r="D17" s="5" t="s">
         <v>46</v>
       </c>
@@ -3531,107 +3830,114 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="66" t="s">
         <v>183</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
     </row>
     <row r="19" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="66"/>
     </row>
     <row r="20" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="66" t="s">
         <v>185</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
     </row>
     <row r="21" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
     </row>
     <row r="22" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="66" t="s">
         <v>187</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A22:P22"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A18:P18"/>
+    <mergeCell ref="A19:P19"/>
+    <mergeCell ref="A20:P20"/>
+    <mergeCell ref="A21:P21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B6:C6"/>
@@ -3647,19 +3953,12 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A22:P22"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A18:P18"/>
-    <mergeCell ref="A19:P19"/>
-    <mergeCell ref="A20:P20"/>
-    <mergeCell ref="A21:P21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F61BB2-6C9B-4B33-A9A1-D8FA33A37C0C}">
   <dimension ref="A1:P18"/>
   <sheetViews>
@@ -3675,29 +3974,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
     </row>
     <row r="2" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3739,11 +4038,11 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="2">
         <v>3</v>
       </c>
@@ -3785,11 +4084,11 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -3806,10 +4105,10 @@
     </row>
     <row r="5" spans="1:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="5" t="s">
         <v>31</v>
       </c>
@@ -3852,10 +4151,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="18"/>
+      <c r="C6" s="59"/>
       <c r="D6" s="5" t="s">
         <v>90</v>
       </c>
@@ -3898,10 +4197,10 @@
     </row>
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="18"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="7" t="s">
         <v>17</v>
       </c>
@@ -3944,10 +4243,10 @@
     </row>
     <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="C8" s="18"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="5" t="s">
         <v>153</v>
       </c>
@@ -3990,10 +4289,10 @@
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="18"/>
+      <c r="C9" s="59"/>
       <c r="D9" s="5" t="s">
         <v>46</v>
       </c>
@@ -4036,10 +4335,10 @@
     </row>
     <row r="10" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="18"/>
+      <c r="C10" s="59"/>
       <c r="D10" s="5" t="s">
         <v>122</v>
       </c>
@@ -4082,10 +4381,10 @@
     </row>
     <row r="11" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="C11" s="18"/>
+      <c r="C11" s="59"/>
       <c r="D11" s="5" t="s">
         <v>163</v>
       </c>
@@ -4128,10 +4427,10 @@
     </row>
     <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="C12" s="19"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="5" t="s">
         <v>90</v>
       </c>
@@ -4174,10 +4473,10 @@
     </row>
     <row r="13" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="19"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="5" t="s">
         <v>46</v>
       </c>
@@ -4219,118 +4518,107 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="66" t="s">
         <v>183</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
     </row>
     <row r="15" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
     </row>
     <row r="16" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="66" t="s">
         <v>185</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
     </row>
     <row r="17" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
     </row>
     <row r="18" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="66" t="s">
         <v>187</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
     <mergeCell ref="A15:P15"/>
     <mergeCell ref="A16:P16"/>
     <mergeCell ref="A17:P17"/>
@@ -4338,12 +4626,23 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="A14:P14"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B99B537-260F-4E5E-82E0-22AEAB556354}">
   <dimension ref="A1:P43"/>
   <sheetViews>
@@ -4361,29 +4660,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="56" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
     </row>
     <row r="2" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4425,11 +4724,11 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="2">
         <v>3</v>
       </c>
@@ -4471,11 +4770,11 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -4492,10 +4791,10 @@
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
@@ -4538,10 +4837,10 @@
     </row>
     <row r="6" spans="1:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="5" t="s">
         <v>31</v>
       </c>
@@ -4583,8 +4882,8 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="39" x14ac:dyDescent="0.35">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="6" t="s">
         <v>44</v>
       </c>
@@ -4629,8 +4928,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="52" x14ac:dyDescent="0.35">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="6" t="s">
         <v>55</v>
       </c>
@@ -4675,8 +4974,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="39" x14ac:dyDescent="0.35">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="6" t="s">
         <v>56</v>
       </c>
@@ -4721,8 +5020,8 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="52" x14ac:dyDescent="0.35">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="6" t="s">
         <v>57</v>
       </c>
@@ -4767,8 +5066,8 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="39" x14ac:dyDescent="0.35">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="6" t="s">
         <v>71</v>
       </c>
@@ -4813,8 +5112,8 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="39" x14ac:dyDescent="0.35">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="6" t="s">
         <v>74</v>
       </c>
@@ -4859,8 +5158,8 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="52" x14ac:dyDescent="0.35">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="6" t="s">
         <v>80</v>
       </c>
@@ -4904,9 +5203,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="39" x14ac:dyDescent="0.35">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
+    <row r="14" spans="1:16" ht="26" x14ac:dyDescent="0.35">
+      <c r="A14" s="67"/>
+      <c r="B14" s="67"/>
       <c r="C14" s="6" t="s">
         <v>82</v>
       </c>
@@ -4950,9 +5249,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="52" x14ac:dyDescent="0.35">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
+    <row r="15" spans="1:16" ht="26" x14ac:dyDescent="0.35">
+      <c r="A15" s="67"/>
+      <c r="B15" s="67"/>
       <c r="C15" s="6" t="s">
         <v>87</v>
       </c>
@@ -4996,9 +5295,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="52" x14ac:dyDescent="0.35">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
+    <row r="16" spans="1:16" ht="26" x14ac:dyDescent="0.35">
+      <c r="A16" s="67"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="6" t="s">
         <v>89</v>
       </c>
@@ -5042,9 +5341,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="39" x14ac:dyDescent="0.35">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
+    <row r="17" spans="1:16" ht="26" x14ac:dyDescent="0.35">
+      <c r="A17" s="67"/>
+      <c r="B17" s="67"/>
       <c r="C17" s="6" t="s">
         <v>100</v>
       </c>
@@ -5088,9 +5387,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="39" x14ac:dyDescent="0.35">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
+    <row r="18" spans="1:16" ht="26" x14ac:dyDescent="0.35">
+      <c r="A18" s="67"/>
+      <c r="B18" s="67"/>
       <c r="C18" s="6" t="s">
         <v>101</v>
       </c>
@@ -5134,9 +5433,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="52" x14ac:dyDescent="0.35">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
+    <row r="19" spans="1:16" ht="26" x14ac:dyDescent="0.35">
+      <c r="A19" s="67"/>
+      <c r="B19" s="67"/>
       <c r="C19" s="6" t="s">
         <v>102</v>
       </c>
@@ -5180,9 +5479,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="52" x14ac:dyDescent="0.35">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
+    <row r="20" spans="1:16" ht="26" x14ac:dyDescent="0.35">
+      <c r="A20" s="67"/>
+      <c r="B20" s="67"/>
       <c r="C20" s="6" t="s">
         <v>103</v>
       </c>
@@ -5227,8 +5526,8 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="26" x14ac:dyDescent="0.35">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="67"/>
       <c r="C21" s="6" t="s">
         <v>104</v>
       </c>
@@ -5273,8 +5572,8 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="26" x14ac:dyDescent="0.35">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="67"/>
       <c r="C22" s="6" t="s">
         <v>112</v>
       </c>
@@ -5319,8 +5618,8 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="26" x14ac:dyDescent="0.35">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="67"/>
       <c r="C23" s="6" t="s">
         <v>113</v>
       </c>
@@ -5365,8 +5664,8 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="26" x14ac:dyDescent="0.35">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
+      <c r="A24" s="67"/>
+      <c r="B24" s="67"/>
       <c r="C24" s="6" t="s">
         <v>117</v>
       </c>
@@ -5411,8 +5710,8 @@
       </c>
     </row>
     <row r="25" spans="1:16" ht="26" x14ac:dyDescent="0.35">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="67"/>
       <c r="C25" s="6" t="s">
         <v>121</v>
       </c>
@@ -5457,8 +5756,8 @@
       </c>
     </row>
     <row r="26" spans="1:16" ht="26" x14ac:dyDescent="0.35">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
+      <c r="A26" s="67"/>
+      <c r="B26" s="67"/>
       <c r="C26" s="6" t="s">
         <v>123</v>
       </c>
@@ -5503,8 +5802,8 @@
       </c>
     </row>
     <row r="27" spans="1:16" ht="26" x14ac:dyDescent="0.35">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
+      <c r="A27" s="67"/>
+      <c r="B27" s="67"/>
       <c r="C27" s="6" t="s">
         <v>124</v>
       </c>
@@ -5550,10 +5849,10 @@
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8"/>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="18"/>
+      <c r="C28" s="59"/>
       <c r="D28" s="5" t="s">
         <v>46</v>
       </c>
@@ -5596,10 +5895,10 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="C29" s="18"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="5" t="s">
         <v>90</v>
       </c>
@@ -5642,10 +5941,10 @@
     </row>
     <row r="30" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="C30" s="18"/>
+      <c r="C30" s="59"/>
       <c r="D30" s="5" t="s">
         <v>122</v>
       </c>
@@ -5688,10 +5987,10 @@
     </row>
     <row r="31" spans="1:16" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="C31" s="19"/>
+      <c r="C31" s="62"/>
       <c r="D31" s="5" t="s">
         <v>46</v>
       </c>
@@ -5734,10 +6033,10 @@
     </row>
     <row r="32" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="C32" s="18"/>
+      <c r="C32" s="59"/>
       <c r="D32" s="5" t="s">
         <v>153</v>
       </c>
@@ -5780,10 +6079,10 @@
     </row>
     <row r="33" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9"/>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="C33" s="18"/>
+      <c r="C33" s="59"/>
       <c r="D33" s="5" t="s">
         <v>163</v>
       </c>
@@ -5826,10 +6125,10 @@
     </row>
     <row r="34" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="C34" s="19"/>
+      <c r="C34" s="62"/>
       <c r="D34" s="5" t="s">
         <v>90</v>
       </c>
@@ -5872,10 +6171,10 @@
     </row>
     <row r="35" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9"/>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="C35" s="19"/>
+      <c r="C35" s="62"/>
       <c r="D35" s="5" t="s">
         <v>46</v>
       </c>
@@ -5918,10 +6217,10 @@
     </row>
     <row r="36" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4"/>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="C36" s="19"/>
+      <c r="C36" s="62"/>
       <c r="D36" s="5" t="s">
         <v>176</v>
       </c>
@@ -5964,10 +6263,10 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="C37" s="18"/>
+      <c r="C37" s="59"/>
       <c r="D37" s="5" t="s">
         <v>46</v>
       </c>
@@ -6010,10 +6309,10 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="C38" s="19"/>
+      <c r="C38" s="62"/>
       <c r="D38" s="5" t="s">
         <v>46</v>
       </c>
@@ -6055,107 +6354,138 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="66" t="s">
         <v>183</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="23"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="66"/>
+      <c r="M39" s="66"/>
+      <c r="N39" s="66"/>
+      <c r="O39" s="66"/>
+      <c r="P39" s="66"/>
     </row>
     <row r="40" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="23"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="66"/>
+      <c r="M40" s="66"/>
+      <c r="N40" s="66"/>
+      <c r="O40" s="66"/>
+      <c r="P40" s="66"/>
     </row>
     <row r="41" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="66" t="s">
         <v>185</v>
       </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="23"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="66"/>
+      <c r="M41" s="66"/>
+      <c r="N41" s="66"/>
+      <c r="O41" s="66"/>
+      <c r="P41" s="66"/>
     </row>
     <row r="42" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="23"/>
-      <c r="P42" s="23"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="66"/>
+      <c r="M42" s="66"/>
+      <c r="N42" s="66"/>
+      <c r="O42" s="66"/>
+      <c r="P42" s="66"/>
     </row>
     <row r="43" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="66" t="s">
         <v>187</v>
       </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="23"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
+      <c r="J43" s="66"/>
+      <c r="K43" s="66"/>
+      <c r="L43" s="66"/>
+      <c r="M43" s="66"/>
+      <c r="N43" s="66"/>
+      <c r="O43" s="66"/>
+      <c r="P43" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A43:P43"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A39:P39"/>
+    <mergeCell ref="A40:P40"/>
+    <mergeCell ref="A41:P41"/>
+    <mergeCell ref="A42:P42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:C2"/>
@@ -6168,43 +6498,12 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A43:P43"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A39:P39"/>
-    <mergeCell ref="A40:P40"/>
-    <mergeCell ref="A41:P41"/>
-    <mergeCell ref="A42:P42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01807EFA-4D0A-48D8-BAD1-CFDFFB2498B6}">
   <dimension ref="A1:P25"/>
   <sheetViews>
@@ -6232,29 +6531,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
     </row>
     <row r="2" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
@@ -6296,11 +6595,11 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="2">
         <v>3</v>
       </c>
@@ -6342,11 +6641,11 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -6362,8 +6661,8 @@
       <c r="P4" s="12"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="67"/>
       <c r="C5" s="6" t="s">
         <v>44</v>
       </c>
@@ -6408,8 +6707,8 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="67"/>
       <c r="C6" s="6" t="s">
         <v>55</v>
       </c>
@@ -6454,8 +6753,8 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="6" t="s">
         <v>56</v>
       </c>
@@ -6500,8 +6799,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="6" t="s">
         <v>57</v>
       </c>
@@ -6546,8 +6845,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="6" t="s">
         <v>71</v>
       </c>
@@ -6592,8 +6891,8 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="6" t="s">
         <v>74</v>
       </c>
@@ -6638,8 +6937,8 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="6" t="s">
         <v>80</v>
       </c>
@@ -6684,8 +6983,8 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="6" t="s">
         <v>82</v>
       </c>
@@ -6730,8 +7029,8 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="6" t="s">
         <v>87</v>
       </c>
@@ -6776,8 +7075,8 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="67"/>
       <c r="C14" s="6" t="s">
         <v>89</v>
       </c>
@@ -6822,8 +7121,8 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="67"/>
       <c r="C15" s="6" t="s">
         <v>100</v>
       </c>
@@ -6868,8 +7167,8 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="6" t="s">
         <v>101</v>
       </c>
@@ -6914,8 +7213,8 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="67"/>
       <c r="C17" s="6" t="s">
         <v>102</v>
       </c>
@@ -6960,8 +7259,8 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="67"/>
       <c r="C18" s="6" t="s">
         <v>103</v>
       </c>
@@ -7006,8 +7305,8 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="67"/>
       <c r="C19" s="6" t="s">
         <v>104</v>
       </c>
@@ -7052,8 +7351,8 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="67"/>
       <c r="C20" s="6" t="s">
         <v>112</v>
       </c>
@@ -7098,8 +7397,8 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="67"/>
       <c r="C21" s="6" t="s">
         <v>113</v>
       </c>
@@ -7144,8 +7443,8 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="67"/>
       <c r="C22" s="6" t="s">
         <v>117</v>
       </c>
@@ -7190,8 +7489,8 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="67"/>
       <c r="C23" s="6" t="s">
         <v>121</v>
       </c>
@@ -7236,8 +7535,8 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
+      <c r="A24" s="67"/>
+      <c r="B24" s="67"/>
       <c r="C24" s="6" t="s">
         <v>123</v>
       </c>
@@ -7282,8 +7581,8 @@
       </c>
     </row>
     <row r="25" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="67"/>
       <c r="C25" s="6" t="s">
         <v>124</v>
       </c>
@@ -7329,6 +7628,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
@@ -7345,21 +7653,329 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E3A8023-B681-442D-8931-70EBDABF3E51}">
+  <dimension ref="A1:P11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.26953125" customWidth="1"/>
+    <col min="2" max="2" width="0.453125" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" customWidth="1"/>
+    <col min="5" max="5" width="15.90625" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" customWidth="1"/>
+    <col min="7" max="7" width="14.6328125" customWidth="1"/>
+    <col min="8" max="8" width="17.26953125" customWidth="1"/>
+    <col min="9" max="9" width="17.08984375" customWidth="1"/>
+    <col min="10" max="11" width="15.90625" customWidth="1"/>
+    <col min="12" max="12" width="17.36328125" customWidth="1"/>
+    <col min="13" max="13" width="19.54296875" customWidth="1"/>
+    <col min="14" max="14" width="15.6328125" customWidth="1"/>
+    <col min="15" max="15" width="16.08984375" customWidth="1"/>
+    <col min="16" max="16" width="16.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="83" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="71">
+        <v>15</v>
+      </c>
+      <c r="E3" s="71">
+        <v>15</v>
+      </c>
+      <c r="F3" s="72">
+        <v>30</v>
+      </c>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="78"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="80"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="80"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="80"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="81" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="73" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="78"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="80"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="80"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="80"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="80"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="81" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B8314A-DBD3-44D6-8DC4-EBEE27D75C92}">
   <dimension ref="A1:P11"/>
   <sheetViews>
@@ -7387,29 +8003,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
     </row>
     <row r="2" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
@@ -7451,11 +8067,11 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="2">
         <v>3</v>
       </c>
@@ -7497,11 +8113,11 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -7517,8 +8133,8 @@
       <c r="P4" s="12"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="67"/>
       <c r="C5" s="6" t="s">
         <v>57</v>
       </c>
@@ -7563,8 +8179,8 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="67"/>
       <c r="C6" s="6" t="s">
         <v>89</v>
       </c>
@@ -7609,8 +8225,8 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="6" t="s">
         <v>104</v>
       </c>
@@ -7655,8 +8271,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="6" t="s">
         <v>82</v>
       </c>
@@ -7701,8 +8317,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="6" t="s">
         <v>44</v>
       </c>
@@ -7747,8 +8363,8 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="6" t="s">
         <v>74</v>
       </c>
@@ -7793,8 +8409,8 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="6" t="s">
         <v>113</v>
       </c>
@@ -7840,27 +8456,27 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3230B5-169A-4C70-B3F4-05AD1D059376}">
   <dimension ref="E7:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
@@ -7872,542 +8488,540 @@
     <col min="9" max="9" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F7" s="30"/>
-    </row>
+    <row r="7" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="5:9" ht="117.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="68" t="s">
         <v>230</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="33"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="70"/>
     </row>
     <row r="9" spans="5:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="25" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="10" spans="5:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="21">
         <v>175</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="21">
         <v>1</v>
       </c>
-      <c r="H10" s="45" t="s">
+      <c r="H10" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="I10" s="58" t="s">
+      <c r="I10" s="46" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="11" spans="5:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="18">
         <v>174</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="18">
         <v>1</v>
       </c>
-      <c r="H11" s="46" t="s">
+      <c r="H11" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="I11" s="59" t="s">
+      <c r="I11" s="47" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="12" spans="5:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="18">
         <v>176</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="18">
         <v>1</v>
       </c>
-      <c r="H12" s="46" t="s">
+      <c r="H12" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="I12" s="60" t="s">
+      <c r="I12" s="48" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="13" spans="5:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="18">
         <v>176</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="18">
         <v>1</v>
       </c>
-      <c r="H13" s="46" t="s">
+      <c r="H13" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="I13" s="60" t="s">
+      <c r="I13" s="48" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="14" spans="5:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="18">
         <v>176</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="18">
         <v>1</v>
       </c>
-      <c r="H14" s="46" t="s">
+      <c r="H14" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="I14" s="60" t="s">
+      <c r="I14" s="48" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="15" spans="5:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="18">
         <v>176</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="18">
         <v>1</v>
       </c>
-      <c r="H15" s="46" t="s">
+      <c r="H15" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="I15" s="60" t="s">
+      <c r="I15" s="48" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="16" spans="5:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="18">
         <v>176</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="18">
         <v>1</v>
       </c>
-      <c r="H16" s="46" t="s">
+      <c r="H16" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="I16" s="60" t="s">
+      <c r="I16" s="48" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="17" spans="5:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="18">
         <v>176</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="18">
         <v>1</v>
       </c>
-      <c r="H17" s="46" t="s">
+      <c r="H17" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="I17" s="60" t="s">
+      <c r="I17" s="48" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="18" spans="5:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="18">
         <v>176</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="18">
         <v>1</v>
       </c>
-      <c r="H18" s="46" t="s">
+      <c r="H18" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="I18" s="60" t="s">
+      <c r="I18" s="48" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="19" spans="5:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="E19" s="42" t="s">
+      <c r="E19" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="18">
         <v>176</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="18">
         <v>1</v>
       </c>
-      <c r="H19" s="46" t="s">
+      <c r="H19" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="I19" s="60" t="s">
+      <c r="I19" s="48" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="20" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E20" s="43" t="s">
+      <c r="E20" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F20" s="26">
         <v>176</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="19">
         <v>1</v>
       </c>
-      <c r="H20" s="47" t="s">
+      <c r="H20" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="I20" s="61" t="s">
+      <c r="I20" s="49" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="21" spans="5:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="17">
         <v>5</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="21">
         <v>5</v>
       </c>
-      <c r="H21" s="48" t="s">
+      <c r="H21" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="I21" s="62" t="s">
+      <c r="I21" s="50" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="22" spans="5:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="E22" s="42" t="s">
+      <c r="E22" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F22" s="18">
         <v>5</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="18">
         <v>5</v>
       </c>
-      <c r="H22" s="49" t="s">
+      <c r="H22" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="I22" s="60" t="s">
+      <c r="I22" s="48" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="23" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E23" s="43" t="s">
+      <c r="E23" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="F23" s="38">
+      <c r="F23" s="26">
         <v>5</v>
       </c>
-      <c r="G23" s="27">
+      <c r="G23" s="19">
         <v>5</v>
       </c>
-      <c r="H23" s="50" t="s">
+      <c r="H23" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="I23" s="63" t="s">
+      <c r="I23" s="51" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="24" spans="5:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="17">
         <v>6</v>
       </c>
-      <c r="G24" s="29">
+      <c r="G24" s="21">
         <v>6</v>
       </c>
-      <c r="H24" s="45" t="s">
+      <c r="H24" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="I24" s="64" t="s">
+      <c r="I24" s="52" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="25" spans="5:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="E25" s="42" t="s">
+      <c r="E25" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="18">
         <v>6</v>
       </c>
-      <c r="G25" s="26">
+      <c r="G25" s="18">
         <v>6</v>
       </c>
-      <c r="H25" s="46" t="s">
+      <c r="H25" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="I25" s="59" t="s">
+      <c r="I25" s="47" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="26" spans="5:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="E26" s="42" t="s">
+      <c r="E26" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="18">
         <v>6</v>
       </c>
-      <c r="G26" s="26">
+      <c r="G26" s="18">
         <v>6</v>
       </c>
-      <c r="H26" s="46" t="s">
+      <c r="H26" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="I26" s="59" t="s">
+      <c r="I26" s="47" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="27" spans="5:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="E27" s="42" t="s">
+      <c r="E27" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="18">
         <v>6</v>
       </c>
-      <c r="G27" s="26">
+      <c r="G27" s="18">
         <v>6</v>
       </c>
-      <c r="H27" s="46" t="s">
+      <c r="H27" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="I27" s="59" t="s">
+      <c r="I27" s="47" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="28" spans="5:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="E28" s="42" t="s">
+      <c r="E28" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="F28" s="26">
+      <c r="F28" s="18">
         <v>6</v>
       </c>
-      <c r="G28" s="26">
+      <c r="G28" s="18">
         <v>6</v>
       </c>
-      <c r="H28" s="46" t="s">
+      <c r="H28" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="I28" s="60" t="s">
+      <c r="I28" s="48" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="29" spans="5:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="E29" s="42" t="s">
+      <c r="E29" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="F29" s="26">
+      <c r="F29" s="18">
         <v>6</v>
       </c>
-      <c r="G29" s="26">
+      <c r="G29" s="18">
         <v>6</v>
       </c>
-      <c r="H29" s="49" t="s">
+      <c r="H29" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="I29" s="60" t="s">
+      <c r="I29" s="48" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="30" spans="5:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="E30" s="42" t="s">
+      <c r="E30" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="F30" s="26">
+      <c r="F30" s="18">
         <v>6</v>
       </c>
-      <c r="G30" s="26">
+      <c r="G30" s="18">
         <v>6</v>
       </c>
-      <c r="H30" s="49" t="s">
+      <c r="H30" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="I30" s="60" t="s">
+      <c r="I30" s="48" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="31" spans="5:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="E31" s="42" t="s">
+      <c r="E31" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="F31" s="26">
+      <c r="F31" s="18">
         <v>6</v>
       </c>
-      <c r="G31" s="26">
+      <c r="G31" s="18">
         <v>6</v>
       </c>
-      <c r="H31" s="49" t="s">
+      <c r="H31" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="I31" s="60" t="s">
+      <c r="I31" s="48" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="32" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E32" s="43" t="s">
+      <c r="E32" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="F32" s="27">
+      <c r="F32" s="19">
         <v>6</v>
       </c>
-      <c r="G32" s="27">
+      <c r="G32" s="19">
         <v>6</v>
       </c>
-      <c r="H32" s="51" t="s">
+      <c r="H32" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="I32" s="65" t="s">
+      <c r="I32" s="53" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="33" spans="5:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="E33" s="28" t="s">
+      <c r="E33" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="F33" s="29">
+      <c r="F33" s="21">
         <v>25</v>
       </c>
-      <c r="G33" s="29">
+      <c r="G33" s="21">
         <v>25</v>
       </c>
-      <c r="H33" s="52" t="s">
+      <c r="H33" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="I33" s="64" t="s">
+      <c r="I33" s="52" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="34" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E34" s="43" t="s">
+      <c r="E34" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="F34" s="27">
+      <c r="F34" s="19">
         <v>25</v>
       </c>
-      <c r="G34" s="27">
+      <c r="G34" s="19">
         <v>25</v>
       </c>
-      <c r="H34" s="53" t="s">
+      <c r="H34" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="I34" s="66" t="s">
+      <c r="I34" s="54" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="35" spans="5:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="E35" s="28" t="s">
+      <c r="E35" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="F35" s="29">
+      <c r="F35" s="21">
         <v>48</v>
       </c>
-      <c r="G35" s="29">
+      <c r="G35" s="21">
         <v>48</v>
       </c>
-      <c r="H35" s="54" t="s">
+      <c r="H35" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="I35" s="67" t="s">
+      <c r="I35" s="55" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="36" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E36" s="43" t="s">
+      <c r="E36" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="F36" s="38">
+      <c r="F36" s="26">
         <v>48</v>
       </c>
-      <c r="G36" s="38">
+      <c r="G36" s="26">
         <v>48</v>
       </c>
-      <c r="H36" s="50" t="s">
+      <c r="H36" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="I36" s="63" t="s">
+      <c r="I36" s="51" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="37" spans="5:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E37" s="34" t="s">
+      <c r="E37" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="F37" s="36">
+      <c r="F37" s="24">
         <v>51</v>
       </c>
-      <c r="G37" s="39">
+      <c r="G37" s="27">
         <v>51</v>
       </c>
-      <c r="H37" s="55" t="s">
+      <c r="H37" s="43" t="s">
         <v>210</v>
       </c>
-      <c r="I37" s="68" t="s">
+      <c r="I37" s="56" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="38" spans="5:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E38" s="44" t="s">
+      <c r="E38" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="F38" s="41">
+      <c r="F38" s="29">
         <v>136</v>
       </c>
-      <c r="G38" s="36">
+      <c r="G38" s="24">
         <v>136</v>
       </c>
-      <c r="H38" s="56" t="s">
+      <c r="H38" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="I38" s="69" t="s">
+      <c r="I38" s="57" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="39" spans="5:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E39" s="34" t="s">
+      <c r="E39" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="F39" s="36">
+      <c r="F39" s="24">
         <v>177</v>
       </c>
-      <c r="G39" s="40">
+      <c r="G39" s="28">
         <v>177</v>
       </c>
-      <c r="H39" s="57" t="s">
+      <c r="H39" s="45" t="s">
         <v>196</v>
       </c>
-      <c r="I39" s="70" t="s">
+      <c r="I39" s="58" t="s">
         <v>200</v>
       </c>
     </row>

--- a/thesis/defense presentation/tables from short communication.xlsx
+++ b/thesis/defense presentation/tables from short communication.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/thesis/defense presentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{E0C6C6D7-56A5-4A2D-9B66-919933D0D8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9D3980B-D033-4C3D-8733-773FFC7ED833}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{E0C6C6D7-56A5-4A2D-9B66-919933D0D8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1D592FE-6943-4008-8ADA-A43E590AF8D9}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="3780" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{5E3297EB-205F-415E-ABB2-07C029930916}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="1" activeTab="4" xr2:uid="{5E3297EB-205F-415E-ABB2-07C029930916}"/>
   </bookViews>
   <sheets>
     <sheet name="only 3 columns" sheetId="8" r:id="rId1"/>
     <sheet name="non zero with boxes" sheetId="4" r:id="rId2"/>
     <sheet name="groups" sheetId="1" r:id="rId3"/>
     <sheet name="only non zero prev" sheetId="3" r:id="rId4"/>
-    <sheet name="full sheet" sheetId="2" r:id="rId5"/>
-    <sheet name="nasm" sheetId="5" r:id="rId6"/>
-    <sheet name="only 3 nasm" sheetId="9" r:id="rId7"/>
-    <sheet name="ed nasm" sheetId="6" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId9"/>
+    <sheet name="full sheet_3 columns" sheetId="10" r:id="rId5"/>
+    <sheet name="full sheet" sheetId="2" r:id="rId6"/>
+    <sheet name="nasm" sheetId="5" r:id="rId7"/>
+    <sheet name="only 3 nasm" sheetId="9" r:id="rId8"/>
+    <sheet name="ed nasm" sheetId="6" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="233">
   <si>
     <r>
       <t xml:space="preserve">Table 1. Quarter-level prevalence of pathogens </t>
@@ -1859,7 +1860,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2033,28 +2034,37 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2064,43 +2074,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2435,14 +2408,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="64" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
@@ -2455,174 +2428,737 @@
       <c r="P1" s="16"/>
     </row>
     <row r="2" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="71" t="s">
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="71" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="71">
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="2">
         <v>15</v>
       </c>
-      <c r="E3" s="71">
+      <c r="E3" s="2">
         <v>15</v>
       </c>
-      <c r="F3" s="72">
+      <c r="F3" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="73" t="s">
+      <c r="C5" s="61"/>
+      <c r="D5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="73" t="s">
+      <c r="C6" s="60"/>
+      <c r="D6" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E6" s="73" t="s">
+      <c r="E6" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F6" s="73" t="s">
+      <c r="F6" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="74" t="s">
+      <c r="C7" s="60"/>
+      <c r="D7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="74" t="s">
+      <c r="E7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="74" t="s">
+      <c r="F7" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="73" t="s">
+      <c r="C8" s="60"/>
+      <c r="D8" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="73" t="s">
+      <c r="E8" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="F8" s="73" t="s">
+      <c r="F8" s="5" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="73" t="s">
+      <c r="C9" s="61"/>
+      <c r="D9" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E9" s="73" t="s">
+      <c r="E9" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="F9" s="73" t="s">
+      <c r="F9" s="5" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="73" t="s">
+      <c r="C10" s="60"/>
+      <c r="D10" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E10" s="73" t="s">
+      <c r="E10" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="F10" s="73" t="s">
+      <c r="F10" s="5" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="64"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="A11:P11"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3230B5-169A-4C70-B3F4-05AD1D059376}">
+  <dimension ref="E7:I40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="15.1796875" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" customWidth="1"/>
+    <col min="8" max="8" width="21.81640625" customWidth="1"/>
+    <col min="9" max="9" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="5:9" ht="117.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E8" s="71" t="s">
+        <v>230</v>
+      </c>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="73"/>
+    </row>
+    <row r="9" spans="5:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E9" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="5:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="21">
+        <v>175</v>
+      </c>
+      <c r="G10" s="21">
+        <v>1</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="5:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="E11" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="F11" s="18">
+        <v>174</v>
+      </c>
+      <c r="G11" s="18">
+        <v>1</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="I11" s="47" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="5:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="E12" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="F12" s="18">
+        <v>176</v>
+      </c>
+      <c r="G12" s="18">
+        <v>1</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="I12" s="48" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="5:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="E13" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="F13" s="18">
+        <v>176</v>
+      </c>
+      <c r="G13" s="18">
+        <v>1</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="I13" s="48" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="5:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="E14" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="F14" s="18">
+        <v>176</v>
+      </c>
+      <c r="G14" s="18">
+        <v>1</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="I14" s="48" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="E15" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="F15" s="18">
+        <v>176</v>
+      </c>
+      <c r="G15" s="18">
+        <v>1</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="I15" s="48" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="5:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="E16" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="F16" s="18">
+        <v>176</v>
+      </c>
+      <c r="G16" s="18">
+        <v>1</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="I16" s="48" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="E17" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="F17" s="18">
+        <v>176</v>
+      </c>
+      <c r="G17" s="18">
+        <v>1</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="I17" s="48" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="E18" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="F18" s="18">
+        <v>176</v>
+      </c>
+      <c r="G18" s="18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="I18" s="48" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="E19" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="F19" s="18">
+        <v>176</v>
+      </c>
+      <c r="G19" s="18">
+        <v>1</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="I19" s="48" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E20" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="F20" s="26">
+        <v>176</v>
+      </c>
+      <c r="G20" s="19">
+        <v>1</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="I20" s="49" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="F21" s="17">
+        <v>5</v>
+      </c>
+      <c r="G21" s="21">
+        <v>5</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="I21" s="50" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="E22" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="F22" s="18">
+        <v>5</v>
+      </c>
+      <c r="G22" s="18">
+        <v>5</v>
+      </c>
+      <c r="H22" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="I22" s="48" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E23" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="F23" s="26">
+        <v>5</v>
+      </c>
+      <c r="G23" s="19">
+        <v>5</v>
+      </c>
+      <c r="H23" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="I23" s="51" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="E24" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="F24" s="17">
+        <v>6</v>
+      </c>
+      <c r="G24" s="21">
+        <v>6</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="I24" s="52" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="E25" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="F25" s="18">
+        <v>6</v>
+      </c>
+      <c r="G25" s="18">
+        <v>6</v>
+      </c>
+      <c r="H25" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="I25" s="47" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="E26" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="F26" s="18">
+        <v>6</v>
+      </c>
+      <c r="G26" s="18">
+        <v>6</v>
+      </c>
+      <c r="H26" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="I26" s="47" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="E27" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="F27" s="18">
+        <v>6</v>
+      </c>
+      <c r="G27" s="18">
+        <v>6</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="I27" s="47" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="E28" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="F28" s="18">
+        <v>6</v>
+      </c>
+      <c r="G28" s="18">
+        <v>6</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="I28" s="48" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="E29" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="F29" s="18">
+        <v>6</v>
+      </c>
+      <c r="G29" s="18">
+        <v>6</v>
+      </c>
+      <c r="H29" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="I29" s="48" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="5:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="E30" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="F30" s="18">
+        <v>6</v>
+      </c>
+      <c r="G30" s="18">
+        <v>6</v>
+      </c>
+      <c r="H30" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="I30" s="48" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="5:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="E31" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="F31" s="18">
+        <v>6</v>
+      </c>
+      <c r="G31" s="18">
+        <v>6</v>
+      </c>
+      <c r="H31" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="I31" s="48" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E32" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="F32" s="19">
+        <v>6</v>
+      </c>
+      <c r="G32" s="19">
+        <v>6</v>
+      </c>
+      <c r="H32" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="I32" s="53" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="5:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="E33" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="F33" s="21">
+        <v>25</v>
+      </c>
+      <c r="G33" s="21">
+        <v>25</v>
+      </c>
+      <c r="H33" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="I33" s="52" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E34" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="F34" s="19">
+        <v>25</v>
+      </c>
+      <c r="G34" s="19">
+        <v>25</v>
+      </c>
+      <c r="H34" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="I34" s="54" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35" spans="5:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="E35" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="F35" s="21">
+        <v>48</v>
+      </c>
+      <c r="G35" s="21">
+        <v>48</v>
+      </c>
+      <c r="H35" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="I35" s="55" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="36" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E36" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="F36" s="26">
+        <v>48</v>
+      </c>
+      <c r="G36" s="26">
+        <v>48</v>
+      </c>
+      <c r="H36" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="I36" s="51" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="37" spans="5:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E37" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="F37" s="24">
+        <v>51</v>
+      </c>
+      <c r="G37" s="27">
+        <v>51</v>
+      </c>
+      <c r="H37" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="I37" s="56" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" spans="5:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E38" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="F38" s="29">
+        <v>136</v>
+      </c>
+      <c r="G38" s="24">
+        <v>136</v>
+      </c>
+      <c r="H38" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="I38" s="57" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="5:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E39" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="F39" s="24">
+        <v>177</v>
+      </c>
+      <c r="G39" s="28">
+        <v>177</v>
+      </c>
+      <c r="H39" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="I39" s="58" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="5:9" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E8:I8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2643,29 +3179,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="72.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
     </row>
     <row r="2" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2707,11 +3243,11 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
       <c r="D3" s="2">
         <v>3</v>
       </c>
@@ -2753,11 +3289,11 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -2774,10 +3310,10 @@
     </row>
     <row r="5" spans="1:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="62"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="5" t="s">
         <v>31</v>
       </c>
@@ -2820,10 +3356,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="59"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="5" t="s">
         <v>90</v>
       </c>
@@ -2866,10 +3402,10 @@
     </row>
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="59"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="7" t="s">
         <v>17</v>
       </c>
@@ -2912,10 +3448,10 @@
     </row>
     <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="C8" s="59"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="5" t="s">
         <v>153</v>
       </c>
@@ -2958,10 +3494,10 @@
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="C9" s="62"/>
+      <c r="C9" s="61"/>
       <c r="D9" s="5" t="s">
         <v>90</v>
       </c>
@@ -3004,10 +3540,10 @@
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8"/>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="59"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="5" t="s">
         <v>46</v>
       </c>
@@ -3049,38 +3585,38 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A11:P11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A11:P11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3102,29 +3638,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="72.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
     </row>
     <row r="2" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3166,11 +3702,11 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
       <c r="D3" s="2">
         <v>3</v>
       </c>
@@ -3212,11 +3748,11 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -3233,10 +3769,10 @@
     </row>
     <row r="5" spans="1:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="62"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="5" t="s">
         <v>31</v>
       </c>
@@ -3279,10 +3815,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="59"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="5" t="s">
         <v>90</v>
       </c>
@@ -3325,10 +3861,10 @@
     </row>
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="59"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="7" t="s">
         <v>17</v>
       </c>
@@ -3371,10 +3907,10 @@
     </row>
     <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="C8" s="59"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="5" t="s">
         <v>153</v>
       </c>
@@ -3417,10 +3953,10 @@
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="C9" s="62"/>
+      <c r="C9" s="61"/>
       <c r="D9" s="5" t="s">
         <v>90</v>
       </c>
@@ -3463,10 +3999,10 @@
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="59"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="5" t="s">
         <v>46</v>
       </c>
@@ -3509,10 +4045,10 @@
     </row>
     <row r="11" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="59"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="5" t="s">
         <v>122</v>
       </c>
@@ -3555,10 +4091,10 @@
     </row>
     <row r="12" spans="1:16" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="62"/>
+      <c r="C12" s="61"/>
       <c r="D12" s="5" t="s">
         <v>46</v>
       </c>
@@ -3601,10 +4137,10 @@
     </row>
     <row r="13" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="C13" s="59"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="5" t="s">
         <v>163</v>
       </c>
@@ -3647,10 +4183,10 @@
     </row>
     <row r="14" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="C14" s="62"/>
+      <c r="C14" s="61"/>
       <c r="D14" s="5" t="s">
         <v>46</v>
       </c>
@@ -3693,10 +4229,10 @@
     </row>
     <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="C15" s="62"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="5" t="s">
         <v>176</v>
       </c>
@@ -3739,10 +4275,10 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="C16" s="59"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="5" t="s">
         <v>46</v>
       </c>
@@ -3785,10 +4321,10 @@
     </row>
     <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="61" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="62"/>
+      <c r="C17" s="61"/>
       <c r="D17" s="5" t="s">
         <v>46</v>
       </c>
@@ -3830,114 +4366,107 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="66" t="s">
+      <c r="A18" s="68" t="s">
         <v>183</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="68"/>
     </row>
     <row r="19" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="66"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68"/>
     </row>
     <row r="20" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
     </row>
     <row r="21" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="66" t="s">
+      <c r="A21" s="68" t="s">
         <v>186</v>
       </c>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
     </row>
     <row r="22" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="66" t="s">
+      <c r="A22" s="68" t="s">
         <v>187</v>
       </c>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A22:P22"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A18:P18"/>
-    <mergeCell ref="A19:P19"/>
-    <mergeCell ref="A20:P20"/>
-    <mergeCell ref="A21:P21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B6:C6"/>
@@ -3953,6 +4482,13 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A22:P22"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A18:P18"/>
+    <mergeCell ref="A19:P19"/>
+    <mergeCell ref="A20:P20"/>
+    <mergeCell ref="A21:P21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3974,29 +4510,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
     </row>
     <row r="2" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4038,11 +4574,11 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
       <c r="D3" s="2">
         <v>3</v>
       </c>
@@ -4084,11 +4620,11 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -4105,10 +4641,10 @@
     </row>
     <row r="5" spans="1:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="62"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="5" t="s">
         <v>31</v>
       </c>
@@ -4151,10 +4687,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="59"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="5" t="s">
         <v>90</v>
       </c>
@@ -4197,10 +4733,10 @@
     </row>
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="59"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="7" t="s">
         <v>17</v>
       </c>
@@ -4243,10 +4779,10 @@
     </row>
     <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="C8" s="59"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="5" t="s">
         <v>153</v>
       </c>
@@ -4289,10 +4825,10 @@
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="59"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="5" t="s">
         <v>46</v>
       </c>
@@ -4335,10 +4871,10 @@
     </row>
     <row r="10" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="59"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="5" t="s">
         <v>122</v>
       </c>
@@ -4381,10 +4917,10 @@
     </row>
     <row r="11" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="C11" s="59"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="5" t="s">
         <v>163</v>
       </c>
@@ -4427,10 +4963,10 @@
     </row>
     <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="C12" s="62"/>
+      <c r="C12" s="61"/>
       <c r="D12" s="5" t="s">
         <v>90</v>
       </c>
@@ -4473,10 +5009,10 @@
     </row>
     <row r="13" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="62"/>
+      <c r="C13" s="61"/>
       <c r="D13" s="5" t="s">
         <v>46</v>
       </c>
@@ -4518,107 +5054,118 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="68" t="s">
         <v>183</v>
       </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
     </row>
     <row r="15" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
     </row>
     <row r="16" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="66" t="s">
+      <c r="A16" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
     </row>
     <row r="17" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="68" t="s">
         <v>186</v>
       </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
     </row>
     <row r="18" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="66" t="s">
+      <c r="A18" s="68" t="s">
         <v>187</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="A15:P15"/>
     <mergeCell ref="A16:P16"/>
     <mergeCell ref="A17:P17"/>
@@ -4626,27 +5173,805 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="A14:P14"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A68D85-00CE-44C8-A4B1-9F2F34BF58D1}">
+  <dimension ref="A1:P44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" customWidth="1"/>
+    <col min="4" max="14" width="12.453125" customWidth="1"/>
+    <col min="15" max="15" width="24.7265625" customWidth="1"/>
+    <col min="16" max="16" width="12.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="56" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+    </row>
+    <row r="2" spans="1:16" ht="56" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="2">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="60"/>
+      <c r="D6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8"/>
+      <c r="B7" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="61"/>
+      <c r="D7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="26" x14ac:dyDescent="0.35">
+      <c r="A8" s="69"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="26" x14ac:dyDescent="0.35">
+      <c r="A9" s="69"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="26" x14ac:dyDescent="0.35">
+      <c r="A10" s="69"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="26" x14ac:dyDescent="0.35">
+      <c r="A11" s="69"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="26" x14ac:dyDescent="0.35">
+      <c r="A12" s="69"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="26" x14ac:dyDescent="0.35">
+      <c r="A13" s="69"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="26" x14ac:dyDescent="0.35">
+      <c r="A14" s="69"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="26" x14ac:dyDescent="0.35">
+      <c r="A15" s="69"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="26" x14ac:dyDescent="0.35">
+      <c r="A16" s="69"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+      <c r="A17" s="69"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+      <c r="A18" s="69"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+      <c r="A19" s="69"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+      <c r="A20" s="69"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+      <c r="A21" s="69"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+      <c r="A22" s="69"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+      <c r="A23" s="69"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+      <c r="A24" s="69"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+      <c r="A25" s="69"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+      <c r="A26" s="69"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+      <c r="A27" s="69"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+      <c r="A28" s="69"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="8"/>
+      <c r="B29" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="60"/>
+      <c r="D29" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="8"/>
+      <c r="B30" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="60"/>
+      <c r="D30" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="4"/>
+      <c r="B31" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="60"/>
+      <c r="D31" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="9"/>
+      <c r="B32" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" s="61"/>
+      <c r="D32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="9"/>
+      <c r="B33" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="C33" s="60"/>
+      <c r="D33" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="9"/>
+      <c r="B34" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="60"/>
+      <c r="D34" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="4"/>
+      <c r="B35" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" s="61"/>
+      <c r="D35" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="9"/>
+      <c r="B36" s="61" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="61"/>
+      <c r="D36" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="4"/>
+      <c r="B37" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="61"/>
+      <c r="D37" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A38" s="8"/>
+      <c r="B38" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="C38" s="60"/>
+      <c r="D38" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A39" s="4"/>
+      <c r="B39" s="61" t="s">
+        <v>182</v>
+      </c>
+      <c r="C39" s="61"/>
+      <c r="D39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="68" t="s">
+        <v>183</v>
+      </c>
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="68"/>
+      <c r="M40" s="68"/>
+      <c r="N40" s="68"/>
+      <c r="O40" s="68"/>
+      <c r="P40" s="68"/>
+    </row>
+    <row r="41" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="68" t="s">
+        <v>184</v>
+      </c>
+      <c r="B41" s="68"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="68"/>
+      <c r="L41" s="68"/>
+      <c r="M41" s="68"/>
+      <c r="N41" s="68"/>
+      <c r="O41" s="68"/>
+      <c r="P41" s="68"/>
+    </row>
+    <row r="42" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="68" t="s">
+        <v>185</v>
+      </c>
+      <c r="B42" s="68"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="68"/>
+      <c r="M42" s="68"/>
+      <c r="N42" s="68"/>
+      <c r="O42" s="68"/>
+      <c r="P42" s="68"/>
+    </row>
+    <row r="43" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="68" t="s">
+        <v>186</v>
+      </c>
+      <c r="B43" s="68"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="68"/>
+      <c r="L43" s="68"/>
+      <c r="M43" s="68"/>
+      <c r="N43" s="68"/>
+      <c r="O43" s="68"/>
+      <c r="P43" s="68"/>
+    </row>
+    <row r="44" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="68" t="s">
+        <v>187</v>
+      </c>
+      <c r="B44" s="68"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="68"/>
+      <c r="L44" s="68"/>
+      <c r="M44" s="68"/>
+      <c r="N44" s="68"/>
+      <c r="O44" s="68"/>
+      <c r="P44" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="43">
+    <mergeCell ref="A44:P44"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A40:P40"/>
+    <mergeCell ref="A41:P41"/>
+    <mergeCell ref="A42:P42"/>
+    <mergeCell ref="A43:P43"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B99B537-260F-4E5E-82E0-22AEAB556354}">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView zoomScale="73" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="73" workbookViewId="0">
       <selection activeCell="O2" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
@@ -4660,29 +5985,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="56" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
     </row>
     <row r="2" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4724,11 +6049,11 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
       <c r="D3" s="2">
         <v>3</v>
       </c>
@@ -4770,11 +6095,11 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -4791,10 +6116,10 @@
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="59"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
@@ -4837,10 +6162,10 @@
     </row>
     <row r="6" spans="1:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="62"/>
+      <c r="C6" s="61"/>
       <c r="D6" s="5" t="s">
         <v>31</v>
       </c>
@@ -4882,8 +6207,8 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="39" x14ac:dyDescent="0.35">
-      <c r="A7" s="67"/>
-      <c r="B7" s="67"/>
+      <c r="A7" s="69"/>
+      <c r="B7" s="69"/>
       <c r="C7" s="6" t="s">
         <v>44</v>
       </c>
@@ -4928,8 +6253,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="52" x14ac:dyDescent="0.35">
-      <c r="A8" s="67"/>
-      <c r="B8" s="67"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="69"/>
       <c r="C8" s="6" t="s">
         <v>55</v>
       </c>
@@ -4974,8 +6299,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="39" x14ac:dyDescent="0.35">
-      <c r="A9" s="67"/>
-      <c r="B9" s="67"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="6" t="s">
         <v>56</v>
       </c>
@@ -5020,8 +6345,8 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="52" x14ac:dyDescent="0.35">
-      <c r="A10" s="67"/>
-      <c r="B10" s="67"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="69"/>
       <c r="C10" s="6" t="s">
         <v>57</v>
       </c>
@@ -5066,8 +6391,8 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="39" x14ac:dyDescent="0.35">
-      <c r="A11" s="67"/>
-      <c r="B11" s="67"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="69"/>
       <c r="C11" s="6" t="s">
         <v>71</v>
       </c>
@@ -5112,8 +6437,8 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="39" x14ac:dyDescent="0.35">
-      <c r="A12" s="67"/>
-      <c r="B12" s="67"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="69"/>
       <c r="C12" s="6" t="s">
         <v>74</v>
       </c>
@@ -5158,8 +6483,8 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="52" x14ac:dyDescent="0.35">
-      <c r="A13" s="67"/>
-      <c r="B13" s="67"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="69"/>
       <c r="C13" s="6" t="s">
         <v>80</v>
       </c>
@@ -5204,8 +6529,8 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="26" x14ac:dyDescent="0.35">
-      <c r="A14" s="67"/>
-      <c r="B14" s="67"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="69"/>
       <c r="C14" s="6" t="s">
         <v>82</v>
       </c>
@@ -5250,8 +6575,8 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="26" x14ac:dyDescent="0.35">
-      <c r="A15" s="67"/>
-      <c r="B15" s="67"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="69"/>
       <c r="C15" s="6" t="s">
         <v>87</v>
       </c>
@@ -5296,8 +6621,8 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="26" x14ac:dyDescent="0.35">
-      <c r="A16" s="67"/>
-      <c r="B16" s="67"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="69"/>
       <c r="C16" s="6" t="s">
         <v>89</v>
       </c>
@@ -5342,8 +6667,8 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="26" x14ac:dyDescent="0.35">
-      <c r="A17" s="67"/>
-      <c r="B17" s="67"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="69"/>
       <c r="C17" s="6" t="s">
         <v>100</v>
       </c>
@@ -5388,8 +6713,8 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="26" x14ac:dyDescent="0.35">
-      <c r="A18" s="67"/>
-      <c r="B18" s="67"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="69"/>
       <c r="C18" s="6" t="s">
         <v>101</v>
       </c>
@@ -5434,8 +6759,8 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="26" x14ac:dyDescent="0.35">
-      <c r="A19" s="67"/>
-      <c r="B19" s="67"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="69"/>
       <c r="C19" s="6" t="s">
         <v>102</v>
       </c>
@@ -5480,8 +6805,8 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="26" x14ac:dyDescent="0.35">
-      <c r="A20" s="67"/>
-      <c r="B20" s="67"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="69"/>
       <c r="C20" s="6" t="s">
         <v>103</v>
       </c>
@@ -5526,8 +6851,8 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="26" x14ac:dyDescent="0.35">
-      <c r="A21" s="67"/>
-      <c r="B21" s="67"/>
+      <c r="A21" s="69"/>
+      <c r="B21" s="69"/>
       <c r="C21" s="6" t="s">
         <v>104</v>
       </c>
@@ -5572,8 +6897,8 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="26" x14ac:dyDescent="0.35">
-      <c r="A22" s="67"/>
-      <c r="B22" s="67"/>
+      <c r="A22" s="69"/>
+      <c r="B22" s="69"/>
       <c r="C22" s="6" t="s">
         <v>112</v>
       </c>
@@ -5618,8 +6943,8 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="26" x14ac:dyDescent="0.35">
-      <c r="A23" s="67"/>
-      <c r="B23" s="67"/>
+      <c r="A23" s="69"/>
+      <c r="B23" s="69"/>
       <c r="C23" s="6" t="s">
         <v>113</v>
       </c>
@@ -5664,8 +6989,8 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="26" x14ac:dyDescent="0.35">
-      <c r="A24" s="67"/>
-      <c r="B24" s="67"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="69"/>
       <c r="C24" s="6" t="s">
         <v>117</v>
       </c>
@@ -5710,8 +7035,8 @@
       </c>
     </row>
     <row r="25" spans="1:16" ht="26" x14ac:dyDescent="0.35">
-      <c r="A25" s="67"/>
-      <c r="B25" s="67"/>
+      <c r="A25" s="69"/>
+      <c r="B25" s="69"/>
       <c r="C25" s="6" t="s">
         <v>121</v>
       </c>
@@ -5756,8 +7081,8 @@
       </c>
     </row>
     <row r="26" spans="1:16" ht="26" x14ac:dyDescent="0.35">
-      <c r="A26" s="67"/>
-      <c r="B26" s="67"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="69"/>
       <c r="C26" s="6" t="s">
         <v>123</v>
       </c>
@@ -5802,8 +7127,8 @@
       </c>
     </row>
     <row r="27" spans="1:16" ht="26" x14ac:dyDescent="0.35">
-      <c r="A27" s="67"/>
-      <c r="B27" s="67"/>
+      <c r="A27" s="69"/>
+      <c r="B27" s="69"/>
       <c r="C27" s="6" t="s">
         <v>124</v>
       </c>
@@ -5849,10 +7174,10 @@
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8"/>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="59"/>
+      <c r="C28" s="60"/>
       <c r="D28" s="5" t="s">
         <v>46</v>
       </c>
@@ -5895,10 +7220,10 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="C29" s="59"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="5" t="s">
         <v>90</v>
       </c>
@@ -5941,10 +7266,10 @@
     </row>
     <row r="30" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="C30" s="59"/>
+      <c r="C30" s="60"/>
       <c r="D30" s="5" t="s">
         <v>122</v>
       </c>
@@ -5987,10 +7312,10 @@
     </row>
     <row r="31" spans="1:16" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
-      <c r="B31" s="62" t="s">
+      <c r="B31" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="C31" s="62"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="5" t="s">
         <v>46</v>
       </c>
@@ -6033,10 +7358,10 @@
     </row>
     <row r="32" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
-      <c r="B32" s="59" t="s">
+      <c r="B32" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="C32" s="59"/>
+      <c r="C32" s="60"/>
       <c r="D32" s="5" t="s">
         <v>153</v>
       </c>
@@ -6079,10 +7404,10 @@
     </row>
     <row r="33" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9"/>
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="C33" s="59"/>
+      <c r="C33" s="60"/>
       <c r="D33" s="5" t="s">
         <v>163</v>
       </c>
@@ -6125,10 +7450,10 @@
     </row>
     <row r="34" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
-      <c r="B34" s="62" t="s">
+      <c r="B34" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="C34" s="62"/>
+      <c r="C34" s="61"/>
       <c r="D34" s="5" t="s">
         <v>90</v>
       </c>
@@ -6171,10 +7496,10 @@
     </row>
     <row r="35" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9"/>
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="C35" s="62"/>
+      <c r="C35" s="61"/>
       <c r="D35" s="5" t="s">
         <v>46</v>
       </c>
@@ -6217,10 +7542,10 @@
     </row>
     <row r="36" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4"/>
-      <c r="B36" s="62" t="s">
+      <c r="B36" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="C36" s="62"/>
+      <c r="C36" s="61"/>
       <c r="D36" s="5" t="s">
         <v>176</v>
       </c>
@@ -6263,10 +7588,10 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="C37" s="59"/>
+      <c r="C37" s="60"/>
       <c r="D37" s="5" t="s">
         <v>46</v>
       </c>
@@ -6309,10 +7634,10 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
-      <c r="B38" s="62" t="s">
+      <c r="B38" s="61" t="s">
         <v>182</v>
       </c>
-      <c r="C38" s="62"/>
+      <c r="C38" s="61"/>
       <c r="D38" s="5" t="s">
         <v>46</v>
       </c>
@@ -6354,114 +7679,131 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="66" t="s">
+      <c r="A39" s="68" t="s">
         <v>183</v>
       </c>
-      <c r="B39" s="66"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="66"/>
-      <c r="J39" s="66"/>
-      <c r="K39" s="66"/>
-      <c r="L39" s="66"/>
-      <c r="M39" s="66"/>
-      <c r="N39" s="66"/>
-      <c r="O39" s="66"/>
-      <c r="P39" s="66"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="68"/>
+      <c r="L39" s="68"/>
+      <c r="M39" s="68"/>
+      <c r="N39" s="68"/>
+      <c r="O39" s="68"/>
+      <c r="P39" s="68"/>
     </row>
     <row r="40" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="66" t="s">
+      <c r="A40" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="B40" s="66"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="66"/>
-      <c r="I40" s="66"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="66"/>
-      <c r="L40" s="66"/>
-      <c r="M40" s="66"/>
-      <c r="N40" s="66"/>
-      <c r="O40" s="66"/>
-      <c r="P40" s="66"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="68"/>
+      <c r="M40" s="68"/>
+      <c r="N40" s="68"/>
+      <c r="O40" s="68"/>
+      <c r="P40" s="68"/>
     </row>
     <row r="41" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="66" t="s">
+      <c r="A41" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="B41" s="66"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="66"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="66"/>
-      <c r="L41" s="66"/>
-      <c r="M41" s="66"/>
-      <c r="N41" s="66"/>
-      <c r="O41" s="66"/>
-      <c r="P41" s="66"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="68"/>
+      <c r="L41" s="68"/>
+      <c r="M41" s="68"/>
+      <c r="N41" s="68"/>
+      <c r="O41" s="68"/>
+      <c r="P41" s="68"/>
     </row>
     <row r="42" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="66" t="s">
+      <c r="A42" s="68" t="s">
         <v>186</v>
       </c>
-      <c r="B42" s="66"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="66"/>
-      <c r="I42" s="66"/>
-      <c r="J42" s="66"/>
-      <c r="K42" s="66"/>
-      <c r="L42" s="66"/>
-      <c r="M42" s="66"/>
-      <c r="N42" s="66"/>
-      <c r="O42" s="66"/>
-      <c r="P42" s="66"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="68"/>
+      <c r="M42" s="68"/>
+      <c r="N42" s="68"/>
+      <c r="O42" s="68"/>
+      <c r="P42" s="68"/>
     </row>
     <row r="43" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="66" t="s">
+      <c r="A43" s="68" t="s">
         <v>187</v>
       </c>
-      <c r="B43" s="66"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
-      <c r="J43" s="66"/>
-      <c r="K43" s="66"/>
-      <c r="L43" s="66"/>
-      <c r="M43" s="66"/>
-      <c r="N43" s="66"/>
-      <c r="O43" s="66"/>
-      <c r="P43" s="66"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="68"/>
+      <c r="L43" s="68"/>
+      <c r="M43" s="68"/>
+      <c r="N43" s="68"/>
+      <c r="O43" s="68"/>
+      <c r="P43" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A43:P43"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A39:P39"/>
-    <mergeCell ref="A40:P40"/>
-    <mergeCell ref="A41:P41"/>
-    <mergeCell ref="A42:P42"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
@@ -6474,36 +7816,19 @@
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A43:P43"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A39:P39"/>
+    <mergeCell ref="A40:P40"/>
+    <mergeCell ref="A41:P41"/>
+    <mergeCell ref="A42:P42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01807EFA-4D0A-48D8-BAD1-CFDFFB2498B6}">
   <dimension ref="A1:P25"/>
   <sheetViews>
@@ -6531,29 +7856,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
     </row>
     <row r="2" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
@@ -6595,11 +7920,11 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
       <c r="D3" s="2">
         <v>3</v>
       </c>
@@ -6641,11 +7966,11 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -6661,8 +7986,8 @@
       <c r="P4" s="12"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="67"/>
-      <c r="B5" s="67"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="6" t="s">
         <v>44</v>
       </c>
@@ -6707,8 +8032,8 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="67"/>
-      <c r="B6" s="67"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="6" t="s">
         <v>55</v>
       </c>
@@ -6753,8 +8078,8 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="67"/>
-      <c r="B7" s="67"/>
+      <c r="A7" s="69"/>
+      <c r="B7" s="69"/>
       <c r="C7" s="6" t="s">
         <v>56</v>
       </c>
@@ -6799,8 +8124,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="67"/>
-      <c r="B8" s="67"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="69"/>
       <c r="C8" s="6" t="s">
         <v>57</v>
       </c>
@@ -6845,8 +8170,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="67"/>
-      <c r="B9" s="67"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="6" t="s">
         <v>71</v>
       </c>
@@ -6891,8 +8216,8 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="67"/>
-      <c r="B10" s="67"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="69"/>
       <c r="C10" s="6" t="s">
         <v>74</v>
       </c>
@@ -6937,8 +8262,8 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11" s="67"/>
-      <c r="B11" s="67"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="69"/>
       <c r="C11" s="6" t="s">
         <v>80</v>
       </c>
@@ -6983,8 +8308,8 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" s="67"/>
-      <c r="B12" s="67"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="69"/>
       <c r="C12" s="6" t="s">
         <v>82</v>
       </c>
@@ -7029,8 +8354,8 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" s="67"/>
-      <c r="B13" s="67"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="69"/>
       <c r="C13" s="6" t="s">
         <v>87</v>
       </c>
@@ -7075,8 +8400,8 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" s="67"/>
-      <c r="B14" s="67"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="69"/>
       <c r="C14" s="6" t="s">
         <v>89</v>
       </c>
@@ -7121,8 +8446,8 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" s="67"/>
-      <c r="B15" s="67"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="69"/>
       <c r="C15" s="6" t="s">
         <v>100</v>
       </c>
@@ -7167,8 +8492,8 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16" s="67"/>
-      <c r="B16" s="67"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="69"/>
       <c r="C16" s="6" t="s">
         <v>101</v>
       </c>
@@ -7213,8 +8538,8 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A17" s="67"/>
-      <c r="B17" s="67"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="69"/>
       <c r="C17" s="6" t="s">
         <v>102</v>
       </c>
@@ -7259,8 +8584,8 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A18" s="67"/>
-      <c r="B18" s="67"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="69"/>
       <c r="C18" s="6" t="s">
         <v>103</v>
       </c>
@@ -7305,8 +8630,8 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A19" s="67"/>
-      <c r="B19" s="67"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="69"/>
       <c r="C19" s="6" t="s">
         <v>104</v>
       </c>
@@ -7351,8 +8676,8 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="67"/>
-      <c r="B20" s="67"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="69"/>
       <c r="C20" s="6" t="s">
         <v>112</v>
       </c>
@@ -7397,8 +8722,8 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A21" s="67"/>
-      <c r="B21" s="67"/>
+      <c r="A21" s="69"/>
+      <c r="B21" s="69"/>
       <c r="C21" s="6" t="s">
         <v>113</v>
       </c>
@@ -7443,8 +8768,8 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A22" s="67"/>
-      <c r="B22" s="67"/>
+      <c r="A22" s="69"/>
+      <c r="B22" s="69"/>
       <c r="C22" s="6" t="s">
         <v>117</v>
       </c>
@@ -7489,8 +8814,8 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A23" s="67"/>
-      <c r="B23" s="67"/>
+      <c r="A23" s="69"/>
+      <c r="B23" s="69"/>
       <c r="C23" s="6" t="s">
         <v>121</v>
       </c>
@@ -7535,8 +8860,8 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A24" s="67"/>
-      <c r="B24" s="67"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="69"/>
       <c r="C24" s="6" t="s">
         <v>123</v>
       </c>
@@ -7581,8 +8906,8 @@
       </c>
     </row>
     <row r="25" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="67"/>
-      <c r="B25" s="67"/>
+      <c r="A25" s="69"/>
+      <c r="B25" s="69"/>
       <c r="C25" s="6" t="s">
         <v>124</v>
       </c>
@@ -7628,15 +8953,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
@@ -7653,16 +8969,25 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E3A8023-B681-442D-8931-70EBDABF3E51}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
+    <sheetView zoomScale="96" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -7686,296 +9011,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="84" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="70" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
     </row>
     <row r="2" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="71" t="s">
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="71" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="71">
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="2">
         <v>15</v>
       </c>
-      <c r="E3" s="71">
+      <c r="E3" s="2">
         <v>15</v>
       </c>
-      <c r="F3" s="72">
+      <c r="F3" s="3">
         <v>30</v>
       </c>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="80"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="81" t="s">
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="80"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="81" t="s">
+      <c r="A6" s="69"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="73" t="s">
+      <c r="E6" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="73" t="s">
+      <c r="F6" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="78"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="80"/>
-      <c r="B7" s="80"/>
-      <c r="C7" s="81" t="s">
+      <c r="A7" s="69"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E7" s="73" t="s">
+      <c r="E7" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="73" t="s">
+      <c r="F7" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="78"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="78"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="80"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="81" t="s">
+      <c r="A8" s="69"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="73" t="s">
+      <c r="E8" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="73" t="s">
+      <c r="F8" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="78"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="80"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="81" t="s">
+      <c r="A9" s="69"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="73" t="s">
+      <c r="D9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="73" t="s">
+      <c r="E9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="73" t="s">
+      <c r="F9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="78"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="78"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="80"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="81" t="s">
+      <c r="A10" s="69"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="73" t="s">
+      <c r="E10" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="73" t="s">
+      <c r="F10" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11" s="80"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="81" t="s">
+      <c r="A11" s="69"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E11" s="73" t="s">
+      <c r="E11" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="73" t="s">
+      <c r="F11" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="78"/>
-      <c r="P11" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B8314A-DBD3-44D6-8DC4-EBEE27D75C92}">
   <dimension ref="A1:P11"/>
   <sheetViews>
@@ -8003,29 +9228,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
     </row>
     <row r="2" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
@@ -8067,11 +9292,11 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
       <c r="D3" s="2">
         <v>3</v>
       </c>
@@ -8113,11 +9338,11 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -8133,8 +9358,8 @@
       <c r="P4" s="12"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="67"/>
-      <c r="B5" s="67"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="6" t="s">
         <v>57</v>
       </c>
@@ -8179,8 +9404,8 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="67"/>
-      <c r="B6" s="67"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="6" t="s">
         <v>89</v>
       </c>
@@ -8225,8 +9450,8 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="67"/>
-      <c r="B7" s="67"/>
+      <c r="A7" s="69"/>
+      <c r="B7" s="69"/>
       <c r="C7" s="6" t="s">
         <v>104</v>
       </c>
@@ -8271,8 +9496,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="67"/>
-      <c r="B8" s="67"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="69"/>
       <c r="C8" s="6" t="s">
         <v>82</v>
       </c>
@@ -8317,8 +9542,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="67"/>
-      <c r="B9" s="67"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="6" t="s">
         <v>44</v>
       </c>
@@ -8363,8 +9588,8 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="67"/>
-      <c r="B10" s="67"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="69"/>
       <c r="C10" s="6" t="s">
         <v>74</v>
       </c>
@@ -8409,8 +9634,8 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="67"/>
-      <c r="B11" s="67"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="69"/>
       <c r="C11" s="6" t="s">
         <v>113</v>
       </c>
@@ -8456,581 +9681,18 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3230B5-169A-4C70-B3F4-05AD1D059376}">
-  <dimension ref="E7:I40"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="5" max="5" width="15.1796875" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" customWidth="1"/>
-    <col min="8" max="8" width="21.81640625" customWidth="1"/>
-    <col min="9" max="9" width="33" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="7" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="5:9" ht="117.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E8" s="68" t="s">
-        <v>230</v>
-      </c>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="70"/>
-    </row>
-    <row r="9" spans="5:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E9" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="5:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="E10" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="F10" s="21">
-        <v>175</v>
-      </c>
-      <c r="G10" s="21">
-        <v>1</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="I10" s="46" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="11" spans="5:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="E11" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="F11" s="18">
-        <v>174</v>
-      </c>
-      <c r="G11" s="18">
-        <v>1</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="I11" s="47" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="12" spans="5:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="E12" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="F12" s="18">
-        <v>176</v>
-      </c>
-      <c r="G12" s="18">
-        <v>1</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="I12" s="48" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="5:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="E13" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="F13" s="18">
-        <v>176</v>
-      </c>
-      <c r="G13" s="18">
-        <v>1</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="I13" s="48" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="5:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="E14" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="F14" s="18">
-        <v>176</v>
-      </c>
-      <c r="G14" s="18">
-        <v>1</v>
-      </c>
-      <c r="H14" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="I14" s="48" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="5:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="E15" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="F15" s="18">
-        <v>176</v>
-      </c>
-      <c r="G15" s="18">
-        <v>1</v>
-      </c>
-      <c r="H15" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="I15" s="48" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="5:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="E16" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="F16" s="18">
-        <v>176</v>
-      </c>
-      <c r="G16" s="18">
-        <v>1</v>
-      </c>
-      <c r="H16" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="I16" s="48" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="5:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="E17" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="F17" s="18">
-        <v>176</v>
-      </c>
-      <c r="G17" s="18">
-        <v>1</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="I17" s="48" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="5:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="E18" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="F18" s="18">
-        <v>176</v>
-      </c>
-      <c r="G18" s="18">
-        <v>1</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="I18" s="48" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="5:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="E19" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="F19" s="18">
-        <v>176</v>
-      </c>
-      <c r="G19" s="18">
-        <v>1</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="I19" s="48" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E20" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="F20" s="26">
-        <v>176</v>
-      </c>
-      <c r="G20" s="19">
-        <v>1</v>
-      </c>
-      <c r="H20" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="I20" s="49" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="5:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="F21" s="17">
-        <v>5</v>
-      </c>
-      <c r="G21" s="21">
-        <v>5</v>
-      </c>
-      <c r="H21" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="I21" s="50" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="5:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="E22" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="F22" s="18">
-        <v>5</v>
-      </c>
-      <c r="G22" s="18">
-        <v>5</v>
-      </c>
-      <c r="H22" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="I22" s="48" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E23" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="F23" s="26">
-        <v>5</v>
-      </c>
-      <c r="G23" s="19">
-        <v>5</v>
-      </c>
-      <c r="H23" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="I23" s="51" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="24" spans="5:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="E24" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="F24" s="17">
-        <v>6</v>
-      </c>
-      <c r="G24" s="21">
-        <v>6</v>
-      </c>
-      <c r="H24" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="I24" s="52" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="25" spans="5:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="E25" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="F25" s="18">
-        <v>6</v>
-      </c>
-      <c r="G25" s="18">
-        <v>6</v>
-      </c>
-      <c r="H25" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="I25" s="47" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="26" spans="5:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="E26" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="F26" s="18">
-        <v>6</v>
-      </c>
-      <c r="G26" s="18">
-        <v>6</v>
-      </c>
-      <c r="H26" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="I26" s="47" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="27" spans="5:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="E27" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="F27" s="18">
-        <v>6</v>
-      </c>
-      <c r="G27" s="18">
-        <v>6</v>
-      </c>
-      <c r="H27" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="I27" s="47" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="28" spans="5:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="E28" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="F28" s="18">
-        <v>6</v>
-      </c>
-      <c r="G28" s="18">
-        <v>6</v>
-      </c>
-      <c r="H28" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="I28" s="48" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29" spans="5:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="E29" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="F29" s="18">
-        <v>6</v>
-      </c>
-      <c r="G29" s="18">
-        <v>6</v>
-      </c>
-      <c r="H29" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="I29" s="48" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30" spans="5:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="E30" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="F30" s="18">
-        <v>6</v>
-      </c>
-      <c r="G30" s="18">
-        <v>6</v>
-      </c>
-      <c r="H30" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="I30" s="48" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="5:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="E31" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="F31" s="18">
-        <v>6</v>
-      </c>
-      <c r="G31" s="18">
-        <v>6</v>
-      </c>
-      <c r="H31" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="I31" s="48" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E32" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="F32" s="19">
-        <v>6</v>
-      </c>
-      <c r="G32" s="19">
-        <v>6</v>
-      </c>
-      <c r="H32" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="I32" s="53" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" spans="5:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="E33" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="F33" s="21">
-        <v>25</v>
-      </c>
-      <c r="G33" s="21">
-        <v>25</v>
-      </c>
-      <c r="H33" s="40" t="s">
-        <v>196</v>
-      </c>
-      <c r="I33" s="52" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="34" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E34" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="F34" s="19">
-        <v>25</v>
-      </c>
-      <c r="G34" s="19">
-        <v>25</v>
-      </c>
-      <c r="H34" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="I34" s="54" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="35" spans="5:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="E35" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="F35" s="21">
-        <v>48</v>
-      </c>
-      <c r="G35" s="21">
-        <v>48</v>
-      </c>
-      <c r="H35" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="I35" s="55" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="36" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E36" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="F36" s="26">
-        <v>48</v>
-      </c>
-      <c r="G36" s="26">
-        <v>48</v>
-      </c>
-      <c r="H36" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="I36" s="51" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="37" spans="5:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E37" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="F37" s="24">
-        <v>51</v>
-      </c>
-      <c r="G37" s="27">
-        <v>51</v>
-      </c>
-      <c r="H37" s="43" t="s">
-        <v>210</v>
-      </c>
-      <c r="I37" s="56" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="38" spans="5:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E38" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="F38" s="29">
-        <v>136</v>
-      </c>
-      <c r="G38" s="24">
-        <v>136</v>
-      </c>
-      <c r="H38" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="I38" s="57" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="39" spans="5:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E39" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="F39" s="24">
-        <v>177</v>
-      </c>
-      <c r="G39" s="28">
-        <v>177</v>
-      </c>
-      <c r="H39" s="45" t="s">
-        <v>196</v>
-      </c>
-      <c r="I39" s="58" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="5:9" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E8:I8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>